--- a/source/image/工作簿1.xlsx
+++ b/source/image/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pict\exam-system\source\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20F876-7F73-40E1-9FAA-B1BBA5D44978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340EEE76-D29C-4BAA-9438-64C193739AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{2830082F-37F1-41A2-84CE-66F8F7B6E355}"/>
   </bookViews>
@@ -31,6 +31,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,22 +413,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA59F8E-604F-4AEC-8260-7972D10C002D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1234</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>111</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>123</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/source/image/工作簿1.xlsx
+++ b/source/image/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pict\exam-system\source\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340EEE76-D29C-4BAA-9438-64C193739AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566E6C8-C86A-486D-B21E-FED581DA0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{2830082F-37F1-41A2-84CE-66F8F7B6E355}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="14175" windowHeight="8632" xr2:uid="{2830082F-37F1-41A2-84CE-66F8F7B6E355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>131</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -462,7 +462,7 @@
         <v>141</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/source/image/工作簿1.xlsx
+++ b/source/image/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pict\exam-system\source\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566E6C8-C86A-486D-B21E-FED581DA0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD2EB2-0BFC-49B0-AA27-E39401A6C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="14175" windowHeight="8632" xr2:uid="{2830082F-37F1-41A2-84CE-66F8F7B6E355}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{2830082F-37F1-41A2-84CE-66F8F7B6E355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>小米</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,7 +48,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小福</t>
+    <t>小李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星穹铁道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S114514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA59F8E-604F-4AEC-8260-7972D10C002D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -425,8 +465,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>111</v>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -436,8 +476,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>151</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -447,8 +487,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>131</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -458,11 +498,44 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>141</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
